--- a/Code/Results/Cases/Case_4_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9993897214237748</v>
+        <v>1.035536927939108</v>
       </c>
       <c r="D2">
-        <v>1.021293553287943</v>
+        <v>1.042979261107844</v>
       </c>
       <c r="E2">
-        <v>1.007569377891854</v>
+        <v>1.039183709549561</v>
       </c>
       <c r="F2">
-        <v>1.020976674622223</v>
+        <v>1.050224574873085</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04732320566019</v>
+        <v>1.0361557452688</v>
       </c>
       <c r="J2">
-        <v>1.021588701151103</v>
+        <v>1.040650162953251</v>
       </c>
       <c r="K2">
-        <v>1.032463996471549</v>
+        <v>1.045754420962579</v>
       </c>
       <c r="L2">
-        <v>1.018924256968121</v>
+        <v>1.041969620700722</v>
       </c>
       <c r="M2">
-        <v>1.032151306102777</v>
+        <v>1.052979445582076</v>
       </c>
       <c r="N2">
-        <v>1.023039474284598</v>
+        <v>1.042128005548887</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005085469494177</v>
+        <v>1.036709142268484</v>
       </c>
       <c r="D3">
-        <v>1.0258166578938</v>
+        <v>1.043916026199733</v>
       </c>
       <c r="E3">
-        <v>1.012752442040746</v>
+        <v>1.040304627735821</v>
       </c>
       <c r="F3">
-        <v>1.026270142405883</v>
+        <v>1.051358372961392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049125224597313</v>
+        <v>1.036422543245636</v>
       </c>
       <c r="J3">
-        <v>1.025438453036496</v>
+        <v>1.041464843160206</v>
       </c>
       <c r="K3">
-        <v>1.036129531491098</v>
+        <v>1.046501798447456</v>
       </c>
       <c r="L3">
-        <v>1.023224712327912</v>
+        <v>1.042899885740154</v>
       </c>
       <c r="M3">
-        <v>1.036577573463971</v>
+        <v>1.053924818824181</v>
       </c>
       <c r="N3">
-        <v>1.026894693259243</v>
+        <v>1.042943842695181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008680731451067</v>
+        <v>1.03746737792507</v>
       </c>
       <c r="D4">
-        <v>1.028672068197959</v>
+        <v>1.044521555393096</v>
       </c>
       <c r="E4">
-        <v>1.016029720474162</v>
+        <v>1.041030031262062</v>
       </c>
       <c r="F4">
-        <v>1.029615629125585</v>
+        <v>1.052091873222573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050247083722927</v>
+        <v>1.036593173753861</v>
       </c>
       <c r="J4">
-        <v>1.027864959974339</v>
+        <v>1.041991217203077</v>
       </c>
       <c r="K4">
-        <v>1.038436336861394</v>
+        <v>1.04698415925924</v>
       </c>
       <c r="L4">
-        <v>1.025938455111554</v>
+        <v>1.04350134172761</v>
       </c>
       <c r="M4">
-        <v>1.039369290818009</v>
+        <v>1.054535812974521</v>
       </c>
       <c r="N4">
-        <v>1.029324646115262</v>
+        <v>1.043470964249568</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010171523455023</v>
+        <v>1.037786078238184</v>
       </c>
       <c r="D5">
-        <v>1.029856082434569</v>
+        <v>1.044775971804059</v>
       </c>
       <c r="E5">
-        <v>1.017389960835743</v>
+        <v>1.041335014489248</v>
       </c>
       <c r="F5">
-        <v>1.031003784468675</v>
+        <v>1.052400203384752</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050708460920864</v>
+        <v>1.036664426773454</v>
       </c>
       <c r="J5">
-        <v>1.028870228958224</v>
+        <v>1.042212319221341</v>
       </c>
       <c r="K5">
-        <v>1.039391132828911</v>
+        <v>1.047186646826477</v>
       </c>
       <c r="L5">
-        <v>1.027063484225818</v>
+        <v>1.0437540779041</v>
       </c>
       <c r="M5">
-        <v>1.040526292938293</v>
+        <v>1.054792501943669</v>
       </c>
       <c r="N5">
-        <v>1.030331342696409</v>
+        <v>1.043692380258059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010420649313795</v>
+        <v>1.037839585835766</v>
       </c>
       <c r="D6">
-        <v>1.030053940866989</v>
+        <v>1.044818680770228</v>
       </c>
       <c r="E6">
-        <v>1.017617345388691</v>
+        <v>1.041386223925898</v>
       </c>
       <c r="F6">
-        <v>1.031235811895879</v>
+        <v>1.052451971445235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050785335938355</v>
+        <v>1.036676362321735</v>
       </c>
       <c r="J6">
-        <v>1.029038165338434</v>
+        <v>1.042249432359438</v>
       </c>
       <c r="K6">
-        <v>1.03955058489142</v>
+        <v>1.047220627983367</v>
       </c>
       <c r="L6">
-        <v>1.027251472242044</v>
+        <v>1.043796506646749</v>
       </c>
       <c r="M6">
-        <v>1.040719602421424</v>
+        <v>1.054835591028915</v>
       </c>
       <c r="N6">
-        <v>1.030499517565542</v>
+        <v>1.04372954610107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008700731433759</v>
+        <v>1.037471636655735</v>
       </c>
       <c r="D7">
-        <v>1.028687952628379</v>
+        <v>1.044524955498842</v>
       </c>
       <c r="E7">
-        <v>1.016047963935266</v>
+        <v>1.041034106369012</v>
       </c>
       <c r="F7">
-        <v>1.029634248555984</v>
+        <v>1.05209599327526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050253288541827</v>
+        <v>1.036594127726338</v>
       </c>
       <c r="J7">
-        <v>1.027878449929995</v>
+        <v>1.041994172307541</v>
       </c>
       <c r="K7">
-        <v>1.038449153024234</v>
+        <v>1.046986866074092</v>
       </c>
       <c r="L7">
-        <v>1.025953549137002</v>
+        <v>1.043504719255232</v>
       </c>
       <c r="M7">
-        <v>1.039384815222365</v>
+        <v>1.054539243543864</v>
       </c>
       <c r="N7">
-        <v>1.029338155228202</v>
+        <v>1.04347392355062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001333911146509</v>
+        <v>1.035933139165111</v>
       </c>
       <c r="D8">
-        <v>1.02283735178987</v>
+        <v>1.043295974017902</v>
       </c>
       <c r="E8">
-        <v>1.009337352037367</v>
+        <v>1.039562510110502</v>
       </c>
       <c r="F8">
-        <v>1.02278263743134</v>
+        <v>1.050607777361988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047941551872828</v>
+        <v>1.036246326236746</v>
       </c>
       <c r="J8">
-        <v>1.022903490111599</v>
+        <v>1.04092564959731</v>
       </c>
       <c r="K8">
-        <v>1.033716613168056</v>
+        <v>1.04600725824179</v>
       </c>
       <c r="L8">
-        <v>1.020392311147572</v>
+        <v>1.042284109612358</v>
       </c>
       <c r="M8">
-        <v>1.033662599196288</v>
+        <v>1.053299089566449</v>
       </c>
       <c r="N8">
-        <v>1.024356130396227</v>
+        <v>1.042403883415578</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9876149783564845</v>
+        <v>1.033220006089745</v>
       </c>
       <c r="D9">
-        <v>1.011948590830825</v>
+        <v>1.041125577239744</v>
       </c>
       <c r="E9">
-        <v>0.9968881877767867</v>
+        <v>1.036970049574725</v>
       </c>
       <c r="F9">
-        <v>1.010059627232171</v>
+        <v>1.047984216490849</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043514103949897</v>
+        <v>1.035618089559687</v>
       </c>
       <c r="J9">
-        <v>1.013612793976511</v>
+        <v>1.039036779122885</v>
       </c>
       <c r="K9">
-        <v>1.024850740035351</v>
+        <v>1.044271524884969</v>
       </c>
       <c r="L9">
-        <v>1.010031954531687</v>
+        <v>1.040129466169788</v>
       </c>
       <c r="M9">
-        <v>1.022991575488812</v>
+        <v>1.051108189503041</v>
       </c>
       <c r="N9">
-        <v>1.01505224040697</v>
+        <v>1.040512330528424</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9779024156542364</v>
+        <v>1.031409733653298</v>
       </c>
       <c r="D10">
-        <v>1.004249965199338</v>
+        <v>1.039675401120386</v>
       </c>
       <c r="E10">
-        <v>0.9881108837844997</v>
+        <v>1.035242135519953</v>
       </c>
       <c r="F10">
-        <v>1.001081724857899</v>
+        <v>1.046234354201024</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040300765473987</v>
+        <v>1.035188924279496</v>
       </c>
       <c r="J10">
-        <v>1.00702105251569</v>
+        <v>1.037773449358778</v>
       </c>
       <c r="K10">
-        <v>1.018542906862134</v>
+        <v>1.043107919112659</v>
       </c>
       <c r="L10">
-        <v>1.002698169917662</v>
+        <v>1.038690444041887</v>
       </c>
       <c r="M10">
-        <v>1.015431475856564</v>
+        <v>1.049643780776949</v>
       </c>
       <c r="N10">
-        <v>1.008451137917191</v>
+        <v>1.039247206691146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9735446557687284</v>
+        <v>1.030625482199473</v>
       </c>
       <c r="D11">
-        <v>1.000799658284048</v>
+        <v>1.039046680319312</v>
       </c>
       <c r="E11">
-        <v>0.9841823281927351</v>
+        <v>1.034494007580294</v>
       </c>
       <c r="F11">
-        <v>0.99706179713877</v>
+        <v>1.04547643537124</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038841328294235</v>
+        <v>1.035000635464629</v>
       </c>
       <c r="J11">
-        <v>1.004060980453991</v>
+        <v>1.037225433087174</v>
       </c>
       <c r="K11">
-        <v>1.015706509960997</v>
+        <v>1.042602525949046</v>
       </c>
       <c r="L11">
-        <v>0.9994088373397857</v>
+        <v>1.038066703093607</v>
       </c>
       <c r="M11">
-        <v>1.012039337198232</v>
+        <v>1.049008760088854</v>
       </c>
       <c r="N11">
-        <v>1.00548686221364</v>
+        <v>1.038698412173578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9719014482121007</v>
+        <v>1.030334115318575</v>
       </c>
       <c r="D12">
-        <v>0.999499339763027</v>
+        <v>1.038813026596425</v>
       </c>
       <c r="E12">
-        <v>0.9827024921088832</v>
+        <v>1.034216128680007</v>
       </c>
       <c r="F12">
-        <v>0.9955473221820942</v>
+        <v>1.045194876632896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038288442373401</v>
+        <v>1.034930327083526</v>
       </c>
       <c r="J12">
-        <v>1.0029445035495</v>
+        <v>1.037021726134943</v>
       </c>
       <c r="K12">
-        <v>1.014636137922647</v>
+        <v>1.042414567525448</v>
       </c>
       <c r="L12">
-        <v>0.9981687615331769</v>
+        <v>1.037834921288166</v>
       </c>
       <c r="M12">
-        <v>1.010760328564668</v>
+        <v>1.048772745434297</v>
       </c>
       <c r="N12">
-        <v>1.004368799783883</v>
+        <v>1.038494415934109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9722550611646033</v>
+        <v>1.030396617297286</v>
       </c>
       <c r="D13">
-        <v>0.9997791298283969</v>
+        <v>1.038863151504579</v>
       </c>
       <c r="E13">
-        <v>0.9830208774990924</v>
+        <v>1.034275734257404</v>
       </c>
       <c r="F13">
-        <v>0.9958731697258533</v>
+        <v>1.045255273495638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038407536002847</v>
+        <v>1.034945425197443</v>
       </c>
       <c r="J13">
-        <v>1.003184778202815</v>
+        <v>1.037065428742794</v>
       </c>
       <c r="K13">
-        <v>1.014866514446378</v>
+        <v>1.042454895799184</v>
       </c>
       <c r="L13">
-        <v>0.9984356090054006</v>
+        <v>1.037884643666007</v>
       </c>
       <c r="M13">
-        <v>1.011035561414494</v>
+        <v>1.048823377719334</v>
       </c>
       <c r="N13">
-        <v>1.004609415654766</v>
+        <v>1.038538180604676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9734093386644382</v>
+        <v>1.030601398978468</v>
       </c>
       <c r="D14">
-        <v>1.000692562668613</v>
+        <v>1.039027368858845</v>
       </c>
       <c r="E14">
-        <v>0.9840604330465677</v>
+        <v>1.034471037845812</v>
       </c>
       <c r="F14">
-        <v>0.9969370531241587</v>
+        <v>1.045453162338281</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03879585005029</v>
+        <v>1.034994831292197</v>
       </c>
       <c r="J14">
-        <v>1.003969044996537</v>
+        <v>1.037208597659492</v>
       </c>
       <c r="K14">
-        <v>1.015618381812056</v>
+        <v>1.04258699400347</v>
       </c>
       <c r="L14">
-        <v>0.9993067122402605</v>
+        <v>1.038047545916132</v>
       </c>
       <c r="M14">
-        <v>1.011934009259468</v>
+        <v>1.048989253900455</v>
       </c>
       <c r="N14">
-        <v>1.00539479619729</v>
+        <v>1.038681552837657</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9741172220702662</v>
+        <v>1.030727563587116</v>
       </c>
       <c r="D15">
-        <v>1.001252840908834</v>
+        <v>1.039128532818553</v>
       </c>
       <c r="E15">
-        <v>0.9846981650356831</v>
+        <v>1.034591371999018</v>
       </c>
       <c r="F15">
-        <v>0.9975896809934494</v>
+        <v>1.045575083647618</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039033656145518</v>
+        <v>1.035025223041176</v>
       </c>
       <c r="J15">
-        <v>1.004449974394581</v>
+        <v>1.037296788934835</v>
       </c>
       <c r="K15">
-        <v>1.016079372650804</v>
+        <v>1.042668353178203</v>
       </c>
       <c r="L15">
-        <v>0.9998409693631757</v>
+        <v>1.038147902524534</v>
       </c>
       <c r="M15">
-        <v>1.012485014711512</v>
+        <v>1.049091437143912</v>
       </c>
       <c r="N15">
-        <v>1.005876408570244</v>
+        <v>1.038769869354727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9781882801770444</v>
+        <v>1.031461773406977</v>
       </c>
       <c r="D16">
-        <v>1.004476392616675</v>
+        <v>1.039717110635126</v>
       </c>
       <c r="E16">
-        <v>0.9883687992860848</v>
+        <v>1.035291787665861</v>
       </c>
       <c r="F16">
-        <v>1.001345607576668</v>
+        <v>1.046284650092553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040396143057255</v>
+        <v>1.035201368584852</v>
       </c>
       <c r="J16">
-        <v>1.007215183815901</v>
+        <v>1.037809798518834</v>
       </c>
       <c r="K16">
-        <v>1.018728850430913</v>
+        <v>1.043141427781356</v>
       </c>
       <c r="L16">
-        <v>1.002913977113864</v>
+        <v>1.03873182619078</v>
       </c>
       <c r="M16">
-        <v>1.015654002646793</v>
+        <v>1.04968590548258</v>
       </c>
       <c r="N16">
-        <v>1.008645544906115</v>
+        <v>1.039283607471178</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9807000733800075</v>
+        <v>1.031922217489819</v>
       </c>
       <c r="D17">
-        <v>1.006466384269654</v>
+        <v>1.040086099165813</v>
       </c>
       <c r="E17">
-        <v>0.9906361101184017</v>
+        <v>1.035731157712447</v>
       </c>
       <c r="F17">
-        <v>1.003665197454658</v>
+        <v>1.046729683354633</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041232197042826</v>
+        <v>1.035311201878159</v>
       </c>
       <c r="J17">
-        <v>1.008920669708857</v>
+        <v>1.03813133104832</v>
       </c>
       <c r="K17">
-        <v>1.02036197640326</v>
+        <v>1.043437760925015</v>
       </c>
       <c r="L17">
-        <v>1.004810338724471</v>
+        <v>1.039097935218268</v>
       </c>
       <c r="M17">
-        <v>1.017609266233135</v>
+        <v>1.050058552085993</v>
       </c>
       <c r="N17">
-        <v>1.010353452784662</v>
+        <v>1.039605596613736</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821506008429728</v>
+        <v>1.032190749099567</v>
       </c>
       <c r="D18">
-        <v>1.007615933255066</v>
+        <v>1.04030124825499</v>
       </c>
       <c r="E18">
-        <v>0.9919463508062377</v>
+        <v>1.035987441701302</v>
       </c>
       <c r="F18">
-        <v>1.005005497824224</v>
+        <v>1.046989242889485</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041713329042657</v>
+        <v>1.035375028697566</v>
       </c>
       <c r="J18">
-        <v>1.009905320200762</v>
+        <v>1.03831878046167</v>
       </c>
       <c r="K18">
-        <v>1.021304488058715</v>
+        <v>1.043610458103836</v>
       </c>
       <c r="L18">
-        <v>1.005905564036581</v>
+        <v>1.039311419249321</v>
       </c>
       <c r="M18">
-        <v>1.018738385619543</v>
+        <v>1.050275821660072</v>
       </c>
       <c r="N18">
-        <v>1.011339501593206</v>
+        <v>1.039793312226754</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9826427722282196</v>
+        <v>1.03228230512087</v>
       </c>
       <c r="D19">
-        <v>1.008006037598355</v>
+        <v>1.040374595725056</v>
       </c>
       <c r="E19">
-        <v>0.9923910720513918</v>
+        <v>1.036074829127787</v>
       </c>
       <c r="F19">
-        <v>1.005460395690953</v>
+        <v>1.047077742489739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041876292281193</v>
+        <v>1.035396751790285</v>
       </c>
       <c r="J19">
-        <v>1.010239373364626</v>
+        <v>1.038382679776657</v>
       </c>
       <c r="K19">
-        <v>1.021624182835107</v>
+        <v>1.043669318145082</v>
       </c>
       <c r="L19">
-        <v>1.006277194444993</v>
+        <v>1.039384201449678</v>
       </c>
       <c r="M19">
-        <v>1.019121495276772</v>
+        <v>1.050349889929063</v>
       </c>
       <c r="N19">
-        <v>1.01167402915088</v>
+        <v>1.039857302286098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9804320992867425</v>
+        <v>1.031872820105155</v>
       </c>
       <c r="D20">
-        <v>1.00625404152588</v>
+        <v>1.040046518022469</v>
       </c>
       <c r="E20">
-        <v>0.9903941250474995</v>
+        <v>1.035684016763618</v>
       </c>
       <c r="F20">
-        <v>1.003417648357225</v>
+        <v>1.046681937662171</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041143175091557</v>
+        <v>1.03529944233006</v>
       </c>
       <c r="J20">
-        <v>1.008738742536272</v>
+        <v>1.038096843492611</v>
       </c>
       <c r="K20">
-        <v>1.020187805406056</v>
+        <v>1.043405982594039</v>
       </c>
       <c r="L20">
-        <v>1.00460801168862</v>
+        <v>1.039058661520487</v>
       </c>
       <c r="M20">
-        <v>1.017400667570462</v>
+        <v>1.050018579834133</v>
       </c>
       <c r="N20">
-        <v>1.010171267254625</v>
+        <v>1.039571060081743</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9730701245041243</v>
+        <v>1.030541097577828</v>
       </c>
       <c r="D21">
-        <v>1.000424106288318</v>
+        <v>1.038979014228347</v>
       </c>
       <c r="E21">
-        <v>0.9837548900968904</v>
+        <v>1.0344135255664</v>
       </c>
       <c r="F21">
-        <v>0.9966243657082505</v>
+        <v>1.045394889954145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038681803781539</v>
+        <v>1.034980292632298</v>
       </c>
       <c r="J21">
-        <v>1.003738575724595</v>
+        <v>1.037166442112849</v>
       </c>
       <c r="K21">
-        <v>1.015397448298562</v>
+        <v>1.042548100811258</v>
       </c>
       <c r="L21">
-        <v>0.9990507084709959</v>
+        <v>1.03799957794177</v>
       </c>
       <c r="M21">
-        <v>1.011669973974993</v>
+        <v>1.048940411365231</v>
       </c>
       <c r="N21">
-        <v>1.005163999632548</v>
+        <v>1.038639337425303</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9682984127289989</v>
+        <v>1.029703436933581</v>
       </c>
       <c r="D22">
-        <v>0.9966496131510677</v>
+        <v>1.038307144297954</v>
       </c>
       <c r="E22">
-        <v>0.9794605995802943</v>
+        <v>1.033614769417213</v>
       </c>
       <c r="F22">
-        <v>0.9922291624041025</v>
+        <v>1.044585474942416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037071518389497</v>
+        <v>1.034777492384059</v>
       </c>
       <c r="J22">
-        <v>1.000495952535324</v>
+        <v>1.036580597408721</v>
       </c>
       <c r="K22">
-        <v>1.01228773532919</v>
+        <v>1.042007368542669</v>
       </c>
       <c r="L22">
-        <v>0.9954502302475821</v>
+        <v>1.037333130270031</v>
       </c>
       <c r="M22">
-        <v>1.007956149069499</v>
+        <v>1.048261715227616</v>
       </c>
       <c r="N22">
-        <v>1.001916771546414</v>
+        <v>1.038052660754498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9708421425984854</v>
+        <v>1.030147530949196</v>
       </c>
       <c r="D23">
-        <v>0.9986612974308362</v>
+        <v>1.03866338076828</v>
       </c>
       <c r="E23">
-        <v>0.9817489477920267</v>
+        <v>1.034038200706311</v>
       </c>
       <c r="F23">
-        <v>0.994571398421939</v>
+        <v>1.045014580285376</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037931309110312</v>
+        <v>1.034885203419226</v>
       </c>
       <c r="J23">
-        <v>1.002224683095462</v>
+        <v>1.03689124709559</v>
       </c>
       <c r="K23">
-        <v>1.013945893411343</v>
+        <v>1.042294149023258</v>
       </c>
       <c r="L23">
-        <v>0.9973694199885018</v>
+        <v>1.037686480276372</v>
       </c>
       <c r="M23">
-        <v>1.009935844618431</v>
+        <v>1.048621581952712</v>
       </c>
       <c r="N23">
-        <v>1.003647957102236</v>
+        <v>1.038363751599555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.980553230112074</v>
+        <v>1.03189514077269</v>
       </c>
       <c r="D24">
-        <v>1.006350024532521</v>
+        <v>1.040064403270882</v>
       </c>
       <c r="E24">
-        <v>0.9905035054190664</v>
+        <v>1.03570531770755</v>
       </c>
       <c r="F24">
-        <v>1.003529544211888</v>
+        <v>1.046703511949346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041183420399248</v>
+        <v>1.035304756696038</v>
       </c>
       <c r="J24">
-        <v>1.008820978821471</v>
+        <v>1.038112427227915</v>
       </c>
       <c r="K24">
-        <v>1.020266536804992</v>
+        <v>1.043420342313757</v>
       </c>
       <c r="L24">
-        <v>1.004699468134288</v>
+        <v>1.0390764078026</v>
       </c>
       <c r="M24">
-        <v>1.017494959321733</v>
+        <v>1.050036641848402</v>
       </c>
       <c r="N24">
-        <v>1.010253620324781</v>
+        <v>1.039586665947738</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9912559668006944</v>
+        <v>1.033921675872909</v>
       </c>
       <c r="D25">
-        <v>1.014837131846388</v>
+        <v>1.04168724616891</v>
       </c>
       <c r="E25">
-        <v>1.000186256288177</v>
+        <v>1.037640188755406</v>
       </c>
       <c r="F25">
-        <v>1.013431595581626</v>
+        <v>1.048662610323024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044702965361502</v>
+        <v>1.035782325709454</v>
       </c>
       <c r="J25">
-        <v>1.016081228883013</v>
+        <v>1.039525813280932</v>
       </c>
       <c r="K25">
-        <v>1.027209405307677</v>
+        <v>1.044721387732643</v>
       </c>
       <c r="L25">
-        <v>1.012781681555571</v>
+        <v>1.040686946056841</v>
       </c>
       <c r="M25">
-        <v>1.025824921045855</v>
+        <v>1.051675257280717</v>
       </c>
       <c r="N25">
-        <v>1.017524180774173</v>
+        <v>1.041002059171068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035536927939108</v>
+        <v>0.9993897214237744</v>
       </c>
       <c r="D2">
-        <v>1.042979261107844</v>
+        <v>1.021293553287943</v>
       </c>
       <c r="E2">
-        <v>1.039183709549561</v>
+        <v>1.007569377891854</v>
       </c>
       <c r="F2">
-        <v>1.050224574873085</v>
+        <v>1.020976674622222</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0361557452688</v>
+        <v>1.04732320566019</v>
       </c>
       <c r="J2">
-        <v>1.040650162953251</v>
+        <v>1.021588701151103</v>
       </c>
       <c r="K2">
-        <v>1.045754420962579</v>
+        <v>1.032463996471548</v>
       </c>
       <c r="L2">
-        <v>1.041969620700722</v>
+        <v>1.01892425696812</v>
       </c>
       <c r="M2">
-        <v>1.052979445582076</v>
+        <v>1.032151306102776</v>
       </c>
       <c r="N2">
-        <v>1.042128005548887</v>
+        <v>1.023039474284597</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036709142268484</v>
+        <v>1.005085469494177</v>
       </c>
       <c r="D3">
-        <v>1.043916026199733</v>
+        <v>1.0258166578938</v>
       </c>
       <c r="E3">
-        <v>1.040304627735821</v>
+        <v>1.012752442040746</v>
       </c>
       <c r="F3">
-        <v>1.051358372961392</v>
+        <v>1.026270142405882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036422543245636</v>
+        <v>1.049125224597313</v>
       </c>
       <c r="J3">
-        <v>1.041464843160206</v>
+        <v>1.025438453036496</v>
       </c>
       <c r="K3">
-        <v>1.046501798447456</v>
+        <v>1.036129531491097</v>
       </c>
       <c r="L3">
-        <v>1.042899885740154</v>
+        <v>1.023224712327913</v>
       </c>
       <c r="M3">
-        <v>1.053924818824181</v>
+        <v>1.036577573463971</v>
       </c>
       <c r="N3">
-        <v>1.042943842695181</v>
+        <v>1.026894693259242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03746737792507</v>
+        <v>1.008680731451069</v>
       </c>
       <c r="D4">
-        <v>1.044521555393096</v>
+        <v>1.028672068197961</v>
       </c>
       <c r="E4">
-        <v>1.041030031262062</v>
+        <v>1.016029720474164</v>
       </c>
       <c r="F4">
-        <v>1.052091873222573</v>
+        <v>1.029615629125588</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036593173753861</v>
+        <v>1.050247083722928</v>
       </c>
       <c r="J4">
-        <v>1.041991217203077</v>
+        <v>1.027864959974341</v>
       </c>
       <c r="K4">
-        <v>1.04698415925924</v>
+        <v>1.038436336861396</v>
       </c>
       <c r="L4">
-        <v>1.04350134172761</v>
+        <v>1.025938455111556</v>
       </c>
       <c r="M4">
-        <v>1.054535812974521</v>
+        <v>1.039369290818011</v>
       </c>
       <c r="N4">
-        <v>1.043470964249568</v>
+        <v>1.029324646115264</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037786078238184</v>
+        <v>1.010171523455023</v>
       </c>
       <c r="D5">
-        <v>1.044775971804059</v>
+        <v>1.029856082434569</v>
       </c>
       <c r="E5">
-        <v>1.041335014489248</v>
+        <v>1.017389960835743</v>
       </c>
       <c r="F5">
-        <v>1.052400203384752</v>
+        <v>1.031003784468676</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036664426773454</v>
+        <v>1.050708460920864</v>
       </c>
       <c r="J5">
-        <v>1.042212319221341</v>
+        <v>1.028870228958224</v>
       </c>
       <c r="K5">
-        <v>1.047186646826477</v>
+        <v>1.039391132828911</v>
       </c>
       <c r="L5">
-        <v>1.0437540779041</v>
+        <v>1.027063484225818</v>
       </c>
       <c r="M5">
-        <v>1.054792501943669</v>
+        <v>1.040526292938293</v>
       </c>
       <c r="N5">
-        <v>1.043692380258059</v>
+        <v>1.03033134269641</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037839585835766</v>
+        <v>1.010420649313797</v>
       </c>
       <c r="D6">
-        <v>1.044818680770228</v>
+        <v>1.03005394086699</v>
       </c>
       <c r="E6">
-        <v>1.041386223925898</v>
+        <v>1.017617345388693</v>
       </c>
       <c r="F6">
-        <v>1.052451971445235</v>
+        <v>1.03123581189588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036676362321735</v>
+        <v>1.050785335938356</v>
       </c>
       <c r="J6">
-        <v>1.042249432359438</v>
+        <v>1.029038165338436</v>
       </c>
       <c r="K6">
-        <v>1.047220627983367</v>
+        <v>1.039550584891421</v>
       </c>
       <c r="L6">
-        <v>1.043796506646749</v>
+        <v>1.027251472242046</v>
       </c>
       <c r="M6">
-        <v>1.054835591028915</v>
+        <v>1.040719602421426</v>
       </c>
       <c r="N6">
-        <v>1.04372954610107</v>
+        <v>1.030499517565544</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037471636655735</v>
+        <v>1.008700731433758</v>
       </c>
       <c r="D7">
-        <v>1.044524955498842</v>
+        <v>1.028687952628378</v>
       </c>
       <c r="E7">
-        <v>1.041034106369012</v>
+        <v>1.016047963935266</v>
       </c>
       <c r="F7">
-        <v>1.05209599327526</v>
+        <v>1.029634248555983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036594127726338</v>
+        <v>1.050253288541826</v>
       </c>
       <c r="J7">
-        <v>1.041994172307541</v>
+        <v>1.027878449929995</v>
       </c>
       <c r="K7">
-        <v>1.046986866074092</v>
+        <v>1.038449153024234</v>
       </c>
       <c r="L7">
-        <v>1.043504719255232</v>
+        <v>1.025953549137002</v>
       </c>
       <c r="M7">
-        <v>1.054539243543864</v>
+        <v>1.039384815222364</v>
       </c>
       <c r="N7">
-        <v>1.04347392355062</v>
+        <v>1.029338155228201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035933139165111</v>
+        <v>1.00133391114651</v>
       </c>
       <c r="D8">
-        <v>1.043295974017902</v>
+        <v>1.022837351789871</v>
       </c>
       <c r="E8">
-        <v>1.039562510110502</v>
+        <v>1.009337352037367</v>
       </c>
       <c r="F8">
-        <v>1.050607777361988</v>
+        <v>1.02278263743134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036246326236746</v>
+        <v>1.047941551872828</v>
       </c>
       <c r="J8">
-        <v>1.04092564959731</v>
+        <v>1.022903490111599</v>
       </c>
       <c r="K8">
-        <v>1.04600725824179</v>
+        <v>1.033716613168056</v>
       </c>
       <c r="L8">
-        <v>1.042284109612358</v>
+        <v>1.020392311147572</v>
       </c>
       <c r="M8">
-        <v>1.053299089566449</v>
+        <v>1.033662599196288</v>
       </c>
       <c r="N8">
-        <v>1.042403883415578</v>
+        <v>1.024356130396227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033220006089745</v>
+        <v>0.9876149783564846</v>
       </c>
       <c r="D9">
-        <v>1.041125577239744</v>
+        <v>1.011948590830825</v>
       </c>
       <c r="E9">
-        <v>1.036970049574725</v>
+        <v>0.9968881877767864</v>
       </c>
       <c r="F9">
-        <v>1.047984216490849</v>
+        <v>1.010059627232172</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035618089559687</v>
+        <v>1.043514103949897</v>
       </c>
       <c r="J9">
-        <v>1.039036779122885</v>
+        <v>1.013612793976511</v>
       </c>
       <c r="K9">
-        <v>1.044271524884969</v>
+        <v>1.024850740035351</v>
       </c>
       <c r="L9">
-        <v>1.040129466169788</v>
+        <v>1.010031954531687</v>
       </c>
       <c r="M9">
-        <v>1.051108189503041</v>
+        <v>1.022991575488812</v>
       </c>
       <c r="N9">
-        <v>1.040512330528424</v>
+        <v>1.01505224040697</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031409733653298</v>
+        <v>0.9779024156542369</v>
       </c>
       <c r="D10">
-        <v>1.039675401120386</v>
+        <v>1.004249965199339</v>
       </c>
       <c r="E10">
-        <v>1.035242135519953</v>
+        <v>0.9881108837844997</v>
       </c>
       <c r="F10">
-        <v>1.046234354201024</v>
+        <v>1.0010817248579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035188924279496</v>
+        <v>1.040300765473987</v>
       </c>
       <c r="J10">
-        <v>1.037773449358778</v>
+        <v>1.00702105251569</v>
       </c>
       <c r="K10">
-        <v>1.043107919112659</v>
+        <v>1.018542906862134</v>
       </c>
       <c r="L10">
-        <v>1.038690444041887</v>
+        <v>1.002698169917663</v>
       </c>
       <c r="M10">
-        <v>1.049643780776949</v>
+        <v>1.015431475856565</v>
       </c>
       <c r="N10">
-        <v>1.039247206691146</v>
+        <v>1.008451137917191</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030625482199473</v>
+        <v>0.9735446557687277</v>
       </c>
       <c r="D11">
-        <v>1.039046680319312</v>
+        <v>1.000799658284047</v>
       </c>
       <c r="E11">
-        <v>1.034494007580294</v>
+        <v>0.9841823281927343</v>
       </c>
       <c r="F11">
-        <v>1.04547643537124</v>
+        <v>0.9970617971387693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035000635464629</v>
+        <v>1.038841328294235</v>
       </c>
       <c r="J11">
-        <v>1.037225433087174</v>
+        <v>1.00406098045399</v>
       </c>
       <c r="K11">
-        <v>1.042602525949046</v>
+        <v>1.015706509960996</v>
       </c>
       <c r="L11">
-        <v>1.038066703093607</v>
+        <v>0.9994088373397849</v>
       </c>
       <c r="M11">
-        <v>1.049008760088854</v>
+        <v>1.012039337198231</v>
       </c>
       <c r="N11">
-        <v>1.038698412173578</v>
+        <v>1.005486862213639</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030334115318575</v>
+        <v>0.9719014482121007</v>
       </c>
       <c r="D12">
-        <v>1.038813026596425</v>
+        <v>0.9994993397630272</v>
       </c>
       <c r="E12">
-        <v>1.034216128680007</v>
+        <v>0.9827024921088832</v>
       </c>
       <c r="F12">
-        <v>1.045194876632896</v>
+        <v>0.9955473221820942</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034930327083526</v>
+        <v>1.038288442373401</v>
       </c>
       <c r="J12">
-        <v>1.037021726134943</v>
+        <v>1.0029445035495</v>
       </c>
       <c r="K12">
-        <v>1.042414567525448</v>
+        <v>1.014636137922647</v>
       </c>
       <c r="L12">
-        <v>1.037834921288166</v>
+        <v>0.9981687615331767</v>
       </c>
       <c r="M12">
-        <v>1.048772745434297</v>
+        <v>1.010760328564668</v>
       </c>
       <c r="N12">
-        <v>1.038494415934109</v>
+        <v>1.004368799783883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030396617297286</v>
+        <v>0.9722550611646037</v>
       </c>
       <c r="D13">
-        <v>1.038863151504579</v>
+        <v>0.9997791298283973</v>
       </c>
       <c r="E13">
-        <v>1.034275734257404</v>
+        <v>0.9830208774990929</v>
       </c>
       <c r="F13">
-        <v>1.045255273495638</v>
+        <v>0.9958731697258538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034945425197443</v>
+        <v>1.038407536002847</v>
       </c>
       <c r="J13">
-        <v>1.037065428742794</v>
+        <v>1.003184778202816</v>
       </c>
       <c r="K13">
-        <v>1.042454895799184</v>
+        <v>1.014866514446378</v>
       </c>
       <c r="L13">
-        <v>1.037884643666007</v>
+        <v>0.9984356090054012</v>
       </c>
       <c r="M13">
-        <v>1.048823377719334</v>
+        <v>1.011035561414495</v>
       </c>
       <c r="N13">
-        <v>1.038538180604676</v>
+        <v>1.004609415654766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030601398978468</v>
+        <v>0.9734093386644381</v>
       </c>
       <c r="D14">
-        <v>1.039027368858845</v>
+        <v>1.000692562668612</v>
       </c>
       <c r="E14">
-        <v>1.034471037845812</v>
+        <v>0.9840604330465675</v>
       </c>
       <c r="F14">
-        <v>1.045453162338281</v>
+        <v>0.9969370531241581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034994831292197</v>
+        <v>1.03879585005029</v>
       </c>
       <c r="J14">
-        <v>1.037208597659492</v>
+        <v>1.003969044996536</v>
       </c>
       <c r="K14">
-        <v>1.04258699400347</v>
+        <v>1.015618381812055</v>
       </c>
       <c r="L14">
-        <v>1.038047545916132</v>
+        <v>0.9993067122402605</v>
       </c>
       <c r="M14">
-        <v>1.048989253900455</v>
+        <v>1.011934009259467</v>
       </c>
       <c r="N14">
-        <v>1.038681552837657</v>
+        <v>1.00539479619729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030727563587116</v>
+        <v>0.9741172220702654</v>
       </c>
       <c r="D15">
-        <v>1.039128532818553</v>
+        <v>1.001252840908833</v>
       </c>
       <c r="E15">
-        <v>1.034591371999018</v>
+        <v>0.9846981650356824</v>
       </c>
       <c r="F15">
-        <v>1.045575083647618</v>
+        <v>0.9975896809934487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035025223041176</v>
+        <v>1.039033656145518</v>
       </c>
       <c r="J15">
-        <v>1.037296788934835</v>
+        <v>1.004449974394581</v>
       </c>
       <c r="K15">
-        <v>1.042668353178203</v>
+        <v>1.016079372650804</v>
       </c>
       <c r="L15">
-        <v>1.038147902524534</v>
+        <v>0.9998409693631747</v>
       </c>
       <c r="M15">
-        <v>1.049091437143912</v>
+        <v>1.012485014711511</v>
       </c>
       <c r="N15">
-        <v>1.038769869354727</v>
+        <v>1.005876408570243</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031461773406977</v>
+        <v>0.9781882801770452</v>
       </c>
       <c r="D16">
-        <v>1.039717110635126</v>
+        <v>1.004476392616676</v>
       </c>
       <c r="E16">
-        <v>1.035291787665861</v>
+        <v>0.9883687992860855</v>
       </c>
       <c r="F16">
-        <v>1.046284650092553</v>
+        <v>1.001345607576669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035201368584852</v>
+        <v>1.040396143057255</v>
       </c>
       <c r="J16">
-        <v>1.037809798518834</v>
+        <v>1.007215183815901</v>
       </c>
       <c r="K16">
-        <v>1.043141427781356</v>
+        <v>1.018728850430914</v>
       </c>
       <c r="L16">
-        <v>1.03873182619078</v>
+        <v>1.002913977113865</v>
       </c>
       <c r="M16">
-        <v>1.04968590548258</v>
+        <v>1.015654002646794</v>
       </c>
       <c r="N16">
-        <v>1.039283607471178</v>
+        <v>1.008645544906116</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031922217489819</v>
+        <v>0.9807000733800069</v>
       </c>
       <c r="D17">
-        <v>1.040086099165813</v>
+        <v>1.006466384269653</v>
       </c>
       <c r="E17">
-        <v>1.035731157712447</v>
+        <v>0.9906361101184008</v>
       </c>
       <c r="F17">
-        <v>1.046729683354633</v>
+        <v>1.003665197454658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035311201878159</v>
+        <v>1.041232197042826</v>
       </c>
       <c r="J17">
-        <v>1.03813133104832</v>
+        <v>1.008920669708856</v>
       </c>
       <c r="K17">
-        <v>1.043437760925015</v>
+        <v>1.020361976403259</v>
       </c>
       <c r="L17">
-        <v>1.039097935218268</v>
+        <v>1.00481033872447</v>
       </c>
       <c r="M17">
-        <v>1.050058552085993</v>
+        <v>1.017609266233134</v>
       </c>
       <c r="N17">
-        <v>1.039605596613736</v>
+        <v>1.010353452784661</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032190749099567</v>
+        <v>0.9821506008429717</v>
       </c>
       <c r="D18">
-        <v>1.04030124825499</v>
+        <v>1.007615933255064</v>
       </c>
       <c r="E18">
-        <v>1.035987441701302</v>
+        <v>0.9919463508062366</v>
       </c>
       <c r="F18">
-        <v>1.046989242889485</v>
+        <v>1.005005497824222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035375028697566</v>
+        <v>1.041713329042657</v>
       </c>
       <c r="J18">
-        <v>1.03831878046167</v>
+        <v>1.00990532020076</v>
       </c>
       <c r="K18">
-        <v>1.043610458103836</v>
+        <v>1.021304488058714</v>
       </c>
       <c r="L18">
-        <v>1.039311419249321</v>
+        <v>1.00590556403658</v>
       </c>
       <c r="M18">
-        <v>1.050275821660072</v>
+        <v>1.018738385619541</v>
       </c>
       <c r="N18">
-        <v>1.039793312226754</v>
+        <v>1.011339501593205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03228230512087</v>
+        <v>0.9826427722282196</v>
       </c>
       <c r="D19">
-        <v>1.040374595725056</v>
+        <v>1.008006037598355</v>
       </c>
       <c r="E19">
-        <v>1.036074829127787</v>
+        <v>0.9923910720513913</v>
       </c>
       <c r="F19">
-        <v>1.047077742489739</v>
+        <v>1.005460395690953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035396751790285</v>
+        <v>1.041876292281192</v>
       </c>
       <c r="J19">
-        <v>1.038382679776657</v>
+        <v>1.010239373364626</v>
       </c>
       <c r="K19">
-        <v>1.043669318145082</v>
+        <v>1.021624182835107</v>
       </c>
       <c r="L19">
-        <v>1.039384201449678</v>
+        <v>1.006277194444992</v>
       </c>
       <c r="M19">
-        <v>1.050349889929063</v>
+        <v>1.019121495276772</v>
       </c>
       <c r="N19">
-        <v>1.039857302286098</v>
+        <v>1.01167402915088</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031872820105155</v>
+        <v>0.9804320992867417</v>
       </c>
       <c r="D20">
-        <v>1.040046518022469</v>
+        <v>1.006254041525879</v>
       </c>
       <c r="E20">
-        <v>1.035684016763618</v>
+        <v>0.9903941250474986</v>
       </c>
       <c r="F20">
-        <v>1.046681937662171</v>
+        <v>1.003417648357225</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03529944233006</v>
+        <v>1.041143175091556</v>
       </c>
       <c r="J20">
-        <v>1.038096843492611</v>
+        <v>1.008738742536271</v>
       </c>
       <c r="K20">
-        <v>1.043405982594039</v>
+        <v>1.020187805406056</v>
       </c>
       <c r="L20">
-        <v>1.039058661520487</v>
+        <v>1.00460801168862</v>
       </c>
       <c r="M20">
-        <v>1.050018579834133</v>
+        <v>1.017400667570461</v>
       </c>
       <c r="N20">
-        <v>1.039571060081743</v>
+        <v>1.010171267254624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030541097577828</v>
+        <v>0.9730701245041242</v>
       </c>
       <c r="D21">
-        <v>1.038979014228347</v>
+        <v>1.000424106288318</v>
       </c>
       <c r="E21">
-        <v>1.0344135255664</v>
+        <v>0.9837548900968907</v>
       </c>
       <c r="F21">
-        <v>1.045394889954145</v>
+        <v>0.9966243657082506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034980292632298</v>
+        <v>1.038681803781539</v>
       </c>
       <c r="J21">
-        <v>1.037166442112849</v>
+        <v>1.003738575724596</v>
       </c>
       <c r="K21">
-        <v>1.042548100811258</v>
+        <v>1.015397448298562</v>
       </c>
       <c r="L21">
-        <v>1.03799957794177</v>
+        <v>0.999050708470996</v>
       </c>
       <c r="M21">
-        <v>1.048940411365231</v>
+        <v>1.011669973974993</v>
       </c>
       <c r="N21">
-        <v>1.038639337425303</v>
+        <v>1.005163999632548</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029703436933581</v>
+        <v>0.9682984127289983</v>
       </c>
       <c r="D22">
-        <v>1.038307144297954</v>
+        <v>0.9966496131510675</v>
       </c>
       <c r="E22">
-        <v>1.033614769417213</v>
+        <v>0.9794605995802939</v>
       </c>
       <c r="F22">
-        <v>1.044585474942416</v>
+        <v>0.9922291624041024</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034777492384059</v>
+        <v>1.037071518389497</v>
       </c>
       <c r="J22">
-        <v>1.036580597408721</v>
+        <v>1.000495952535324</v>
       </c>
       <c r="K22">
-        <v>1.042007368542669</v>
+        <v>1.012287735329189</v>
       </c>
       <c r="L22">
-        <v>1.037333130270031</v>
+        <v>0.9954502302475817</v>
       </c>
       <c r="M22">
-        <v>1.048261715227616</v>
+        <v>1.007956149069499</v>
       </c>
       <c r="N22">
-        <v>1.038052660754498</v>
+        <v>1.001916771546414</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030147530949196</v>
+        <v>0.9708421425984847</v>
       </c>
       <c r="D23">
-        <v>1.03866338076828</v>
+        <v>0.9986612974308353</v>
       </c>
       <c r="E23">
-        <v>1.034038200706311</v>
+        <v>0.9817489477920256</v>
       </c>
       <c r="F23">
-        <v>1.045014580285376</v>
+        <v>0.994571398421938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034885203419226</v>
+        <v>1.037931309110312</v>
       </c>
       <c r="J23">
-        <v>1.03689124709559</v>
+        <v>1.002224683095461</v>
       </c>
       <c r="K23">
-        <v>1.042294149023258</v>
+        <v>1.013945893411342</v>
       </c>
       <c r="L23">
-        <v>1.037686480276372</v>
+        <v>0.9973694199885007</v>
       </c>
       <c r="M23">
-        <v>1.048621581952712</v>
+        <v>1.00993584461843</v>
       </c>
       <c r="N23">
-        <v>1.038363751599555</v>
+        <v>1.003647957102234</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03189514077269</v>
+        <v>0.9805532301120731</v>
       </c>
       <c r="D24">
-        <v>1.040064403270882</v>
+        <v>1.006350024532521</v>
       </c>
       <c r="E24">
-        <v>1.03570531770755</v>
+        <v>0.9905035054190653</v>
       </c>
       <c r="F24">
-        <v>1.046703511949346</v>
+        <v>1.003529544211887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035304756696038</v>
+        <v>1.041183420399248</v>
       </c>
       <c r="J24">
-        <v>1.038112427227915</v>
+        <v>1.00882097882147</v>
       </c>
       <c r="K24">
-        <v>1.043420342313757</v>
+        <v>1.020266536804991</v>
       </c>
       <c r="L24">
-        <v>1.0390764078026</v>
+        <v>1.004699468134287</v>
       </c>
       <c r="M24">
-        <v>1.050036641848402</v>
+        <v>1.017494959321732</v>
       </c>
       <c r="N24">
-        <v>1.039586665947738</v>
+        <v>1.01025362032478</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033921675872909</v>
+        <v>0.9912559668006955</v>
       </c>
       <c r="D25">
-        <v>1.04168724616891</v>
+        <v>1.014837131846389</v>
       </c>
       <c r="E25">
-        <v>1.037640188755406</v>
+        <v>1.000186256288178</v>
       </c>
       <c r="F25">
-        <v>1.048662610323024</v>
+        <v>1.013431595581628</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035782325709454</v>
+        <v>1.044702965361503</v>
       </c>
       <c r="J25">
-        <v>1.039525813280932</v>
+        <v>1.016081228883014</v>
       </c>
       <c r="K25">
-        <v>1.044721387732643</v>
+        <v>1.027209405307678</v>
       </c>
       <c r="L25">
-        <v>1.040686946056841</v>
+        <v>1.012781681555572</v>
       </c>
       <c r="M25">
-        <v>1.051675257280717</v>
+        <v>1.025824921045856</v>
       </c>
       <c r="N25">
-        <v>1.041002059171068</v>
+        <v>1.017524180774174</v>
       </c>
     </row>
   </sheetData>
